--- a/data/pca/factorExposure/factorExposure_2017-08-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0244911579889557</v>
+        <v>0.006430529553249963</v>
       </c>
       <c r="C2">
-        <v>-0.009182109334442128</v>
+        <v>0.04194461344360891</v>
       </c>
       <c r="D2">
-        <v>-0.01624073370372027</v>
+        <v>-0.02970943961340901</v>
       </c>
       <c r="E2">
-        <v>0.009104186787059997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03271664602827908</v>
+      </c>
+      <c r="F2">
+        <v>0.02097133434362659</v>
+      </c>
+      <c r="G2">
+        <v>0.04298871775326504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01522423123585409</v>
+        <v>0.05600006331641552</v>
       </c>
       <c r="C3">
-        <v>-0.05701978777682993</v>
+        <v>0.07168924489759157</v>
       </c>
       <c r="D3">
-        <v>-0.007073569679576699</v>
+        <v>-0.01467893184080542</v>
       </c>
       <c r="E3">
-        <v>0.002615757703356546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09960160394552246</v>
+      </c>
+      <c r="F3">
+        <v>0.05545821408313489</v>
+      </c>
+      <c r="G3">
+        <v>0.1018977895983402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02304745120338726</v>
+        <v>0.05487485415177885</v>
       </c>
       <c r="C4">
-        <v>-0.02469356114824361</v>
+        <v>0.06382169328621316</v>
       </c>
       <c r="D4">
-        <v>-0.05993258442665236</v>
+        <v>-0.02330968264020605</v>
       </c>
       <c r="E4">
-        <v>-0.01840215570478519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01757048522820124</v>
+      </c>
+      <c r="F4">
+        <v>0.007641865349566766</v>
+      </c>
+      <c r="G4">
+        <v>0.05897439314086614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01557980380273198</v>
+        <v>0.03653071246903297</v>
       </c>
       <c r="C6">
-        <v>-0.02352554349098341</v>
+        <v>0.04947508493236595</v>
       </c>
       <c r="D6">
-        <v>-0.07774992520531755</v>
+        <v>-0.01545412091933455</v>
       </c>
       <c r="E6">
-        <v>-0.0101575302023383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01584252704542415</v>
+      </c>
+      <c r="F6">
+        <v>0.01366009248321178</v>
+      </c>
+      <c r="G6">
+        <v>0.03504327038850998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01039148601595086</v>
+        <v>0.01554732862505209</v>
       </c>
       <c r="C7">
-        <v>-0.005402730684984234</v>
+        <v>0.03590564939838831</v>
       </c>
       <c r="D7">
-        <v>-0.02857673353618015</v>
+        <v>-0.01340451461314596</v>
       </c>
       <c r="E7">
-        <v>-0.0733890479142202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.00837745481033335</v>
+      </c>
+      <c r="F7">
+        <v>0.003839066530306376</v>
+      </c>
+      <c r="G7">
+        <v>0.09664187462315872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>8.079321075748333e-06</v>
+        <v>-0.001912293798047026</v>
       </c>
       <c r="C8">
-        <v>-0.0005668557406054312</v>
+        <v>0.01897416969530656</v>
       </c>
       <c r="D8">
-        <v>-0.005944278337520478</v>
+        <v>-0.003899673358596761</v>
       </c>
       <c r="E8">
-        <v>-0.009551967755219841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02245235129186057</v>
+      </c>
+      <c r="F8">
+        <v>0.02304440208685435</v>
+      </c>
+      <c r="G8">
+        <v>0.031813655930794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01596184137211655</v>
+        <v>0.03190587304122572</v>
       </c>
       <c r="C9">
-        <v>-0.0249277815222211</v>
+        <v>0.04419914475913228</v>
       </c>
       <c r="D9">
-        <v>-0.04565972114197468</v>
+        <v>-0.01602319183349166</v>
       </c>
       <c r="E9">
-        <v>-0.008535864253824493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01252103362304774</v>
+      </c>
+      <c r="F9">
+        <v>0.01195286003580803</v>
+      </c>
+      <c r="G9">
+        <v>0.05476793921451839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0155157240716076</v>
+        <v>0.094454780077584</v>
       </c>
       <c r="C10">
-        <v>-0.1559677026880724</v>
+        <v>-0.1832113209192448</v>
       </c>
       <c r="D10">
-        <v>0.1260168765324928</v>
+        <v>0.01755693914961308</v>
       </c>
       <c r="E10">
-        <v>-0.01047301883094567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.009582527959264222</v>
+      </c>
+      <c r="F10">
+        <v>-0.01878937872003714</v>
+      </c>
+      <c r="G10">
+        <v>0.04916832250570326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006271637924348434</v>
+        <v>0.03123476687776599</v>
       </c>
       <c r="C11">
-        <v>-0.009931516240340889</v>
+        <v>0.05405830612710898</v>
       </c>
       <c r="D11">
-        <v>-0.04162228572002472</v>
+        <v>-0.00229413916885586</v>
       </c>
       <c r="E11">
-        <v>0.005773809506936717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.006792747807060667</v>
+      </c>
+      <c r="F11">
+        <v>0.02302846492344549</v>
+      </c>
+      <c r="G11">
+        <v>0.03547264109322962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00602405222863775</v>
+        <v>0.03104081664997746</v>
       </c>
       <c r="C12">
-        <v>-0.01729297157278743</v>
+        <v>0.04672124727703683</v>
       </c>
       <c r="D12">
-        <v>-0.04341172892030613</v>
+        <v>-0.006289746977829372</v>
       </c>
       <c r="E12">
-        <v>-0.002928340883728638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001127047375370222</v>
+      </c>
+      <c r="F12">
+        <v>0.007633958831096192</v>
+      </c>
+      <c r="G12">
+        <v>0.03652338514181104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02222503987219892</v>
+        <v>0.01372004923278596</v>
       </c>
       <c r="C13">
-        <v>-0.01795703777715985</v>
+        <v>0.03136563706137226</v>
       </c>
       <c r="D13">
-        <v>-0.01006614470120141</v>
+        <v>-0.02498823929714916</v>
       </c>
       <c r="E13">
-        <v>0.007887825385502726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02248057412279908</v>
+      </c>
+      <c r="F13">
+        <v>0.01174317451504094</v>
+      </c>
+      <c r="G13">
+        <v>0.05210642044947735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007529716974388994</v>
+        <v>0.007867232712868336</v>
       </c>
       <c r="C14">
-        <v>-0.01471718499049245</v>
+        <v>0.02556860918550362</v>
       </c>
       <c r="D14">
-        <v>-0.01314231613158787</v>
+        <v>-0.008649703419569789</v>
       </c>
       <c r="E14">
-        <v>-0.01307104766615404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.005273791005721395</v>
+      </c>
+      <c r="F14">
+        <v>-0.003958077846665496</v>
+      </c>
+      <c r="G14">
+        <v>0.05391406190620249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001289665052697339</v>
+        <v>0.03127591117760385</v>
       </c>
       <c r="C16">
-        <v>-0.01729409078716836</v>
+        <v>0.04479800016984645</v>
       </c>
       <c r="D16">
-        <v>-0.04442656557529377</v>
+        <v>-0.001682661105651418</v>
       </c>
       <c r="E16">
-        <v>-0.001043545781903454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006343035388863421</v>
+      </c>
+      <c r="F16">
+        <v>0.01005784190642706</v>
+      </c>
+      <c r="G16">
+        <v>0.03577890706731045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01385617515969596</v>
+        <v>0.02257531613009084</v>
       </c>
       <c r="C19">
-        <v>-0.02835361054376689</v>
+        <v>0.04945368031959792</v>
       </c>
       <c r="D19">
-        <v>-0.01828594315974751</v>
+        <v>-0.01643574999011462</v>
       </c>
       <c r="E19">
-        <v>-0.004235422046906396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05440235868172739</v>
+      </c>
+      <c r="F19">
+        <v>0.02617223636590121</v>
+      </c>
+      <c r="G19">
+        <v>0.06221109833144933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01075359379301856</v>
+        <v>0.01160988141482131</v>
       </c>
       <c r="C20">
-        <v>-0.01035325126061249</v>
+        <v>0.0329863644834842</v>
       </c>
       <c r="D20">
-        <v>-0.009116704534298123</v>
+        <v>-0.01316430074727891</v>
       </c>
       <c r="E20">
-        <v>-0.0008745588079891869</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02378494058156889</v>
+      </c>
+      <c r="F20">
+        <v>-0.002038857219249587</v>
+      </c>
+      <c r="G20">
+        <v>0.05290993260907027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01499064195344453</v>
+        <v>0.01339924040267998</v>
       </c>
       <c r="C21">
-        <v>-0.03266624609230954</v>
+        <v>0.03401242890071804</v>
       </c>
       <c r="D21">
-        <v>-0.0160596271309842</v>
+        <v>-0.01654139294513098</v>
       </c>
       <c r="E21">
-        <v>-0.01873596846311483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03117072392668056</v>
+      </c>
+      <c r="F21">
+        <v>0.003355715032441513</v>
+      </c>
+      <c r="G21">
+        <v>0.07531106907433786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004992569440870194</v>
+        <v>0.02474663839849903</v>
       </c>
       <c r="C24">
-        <v>-0.007429967943843544</v>
+        <v>0.04816751356787331</v>
       </c>
       <c r="D24">
-        <v>-0.04189444858974716</v>
+        <v>-0.007219736587854983</v>
       </c>
       <c r="E24">
-        <v>0.0007354521497867708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.002826894330264973</v>
+      </c>
+      <c r="F24">
+        <v>0.01947242558607316</v>
+      </c>
+      <c r="G24">
+        <v>0.03807412292120099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01208429399862311</v>
+        <v>0.03919687501950841</v>
       </c>
       <c r="C25">
-        <v>-0.02550342704330405</v>
+        <v>0.05565634754924268</v>
       </c>
       <c r="D25">
-        <v>-0.04093015773310478</v>
+        <v>-0.01130845032316883</v>
       </c>
       <c r="E25">
-        <v>-0.0002449163219684984</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.004575715851478995</v>
+      </c>
+      <c r="F25">
+        <v>0.01493661957122309</v>
+      </c>
+      <c r="G25">
+        <v>0.04453979952752316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02298091938209936</v>
+        <v>0.01207036853605593</v>
       </c>
       <c r="C26">
-        <v>-0.01110307767424452</v>
+        <v>0.007837119995613552</v>
       </c>
       <c r="D26">
-        <v>0.006616480945266363</v>
+        <v>-0.02341736787073353</v>
       </c>
       <c r="E26">
-        <v>-0.009411956103122862</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003313952878765829</v>
+      </c>
+      <c r="F26">
+        <v>-0.004306717237875991</v>
+      </c>
+      <c r="G26">
+        <v>0.04180294533031917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03630902169452645</v>
+        <v>0.1222932406966867</v>
       </c>
       <c r="C28">
-        <v>-0.2282924631977578</v>
+        <v>-0.2302221781368789</v>
       </c>
       <c r="D28">
-        <v>0.1835932055758537</v>
+        <v>0.008695006137407865</v>
       </c>
       <c r="E28">
-        <v>-0.01965749390665058</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.002557460002706821</v>
+      </c>
+      <c r="F28">
+        <v>-0.0186239760811123</v>
+      </c>
+      <c r="G28">
+        <v>0.06655837883718013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007977057557290968</v>
+        <v>0.01056855435173833</v>
       </c>
       <c r="C29">
-        <v>-0.02054937246141073</v>
+        <v>0.01918460207355193</v>
       </c>
       <c r="D29">
-        <v>-0.009334464598803216</v>
+        <v>-0.007434613751061159</v>
       </c>
       <c r="E29">
-        <v>-0.008412401069897579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007844982498392829</v>
+      </c>
+      <c r="F29">
+        <v>-0.01276841890978429</v>
+      </c>
+      <c r="G29">
+        <v>0.04432392627245585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02362342741547827</v>
+        <v>0.04437863311740465</v>
       </c>
       <c r="C30">
-        <v>-0.009298870797950935</v>
+        <v>0.06366317729325266</v>
       </c>
       <c r="D30">
-        <v>-0.06460849580425511</v>
+        <v>-0.02757436778878925</v>
       </c>
       <c r="E30">
-        <v>0.0547041654372892</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04333337385073206</v>
+      </c>
+      <c r="F30">
+        <v>0.05227013019315081</v>
+      </c>
+      <c r="G30">
+        <v>0.02699673267911834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.008692352474952401</v>
+        <v>0.04987574726404308</v>
       </c>
       <c r="C31">
-        <v>-0.04551727368088969</v>
+        <v>0.03400770249457724</v>
       </c>
       <c r="D31">
-        <v>-0.04112212871169005</v>
+        <v>-0.00346094200345947</v>
       </c>
       <c r="E31">
-        <v>-0.01201711423967962</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005973565117263295</v>
+      </c>
+      <c r="F31">
+        <v>-0.03530510075877932</v>
+      </c>
+      <c r="G31">
+        <v>0.04542987290482139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006322290307218566</v>
+        <v>-0.003603037207721799</v>
       </c>
       <c r="C32">
-        <v>-0.0227894872954129</v>
+        <v>0.02948415642800573</v>
       </c>
       <c r="D32">
-        <v>0.004558995824421649</v>
+        <v>0.003985315660167132</v>
       </c>
       <c r="E32">
-        <v>-0.03182422252143627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01412665043117523</v>
+      </c>
+      <c r="F32">
+        <v>0.04907618344859924</v>
+      </c>
+      <c r="G32">
+        <v>0.06542811188626944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01326164341091399</v>
+        <v>0.02566930906591466</v>
       </c>
       <c r="C33">
-        <v>-0.0279908247517863</v>
+        <v>0.04648059737970892</v>
       </c>
       <c r="D33">
-        <v>-0.02029965475034479</v>
+        <v>-0.01456279967738459</v>
       </c>
       <c r="E33">
-        <v>0.02109667443810995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02651117665637893</v>
+      </c>
+      <c r="F33">
+        <v>0.02453400635969425</v>
+      </c>
+      <c r="G33">
+        <v>0.0569372374878529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004329386887249106</v>
+        <v>0.03873455976712653</v>
       </c>
       <c r="C34">
-        <v>-0.02163058933805832</v>
+        <v>0.05824981123064528</v>
       </c>
       <c r="D34">
-        <v>-0.04540879456863808</v>
+        <v>0.004537263266459074</v>
       </c>
       <c r="E34">
-        <v>-0.009265609271488747</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.004393698807308046</v>
+      </c>
+      <c r="F34">
+        <v>0.02557096017550015</v>
+      </c>
+      <c r="G34">
+        <v>0.04860319407346814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01275441622558949</v>
+        <v>0.01178158902949308</v>
       </c>
       <c r="C36">
-        <v>-0.02309906710752483</v>
+        <v>0.007302017124319056</v>
       </c>
       <c r="D36">
-        <v>-0.0014717020854273</v>
+        <v>-0.01152993067421181</v>
       </c>
       <c r="E36">
-        <v>-0.003948023695592714</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0004872140931008167</v>
+      </c>
+      <c r="F36">
+        <v>-0.006705405543661066</v>
+      </c>
+      <c r="G36">
+        <v>0.03737033725734615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.00399025941140314</v>
+        <v>0.03076792861777257</v>
       </c>
       <c r="C38">
-        <v>-0.03910909973840562</v>
+        <v>0.02880056747316709</v>
       </c>
       <c r="D38">
-        <v>-0.02651646321515585</v>
+        <v>0.00743227655605192</v>
       </c>
       <c r="E38">
-        <v>-0.002826070536899552</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004928299193661174</v>
+      </c>
+      <c r="F38">
+        <v>-0.008058814729214697</v>
+      </c>
+      <c r="G38">
+        <v>0.04435434180822938</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005746713199277172</v>
+        <v>0.03051338149056156</v>
       </c>
       <c r="C39">
-        <v>0.01211592592907947</v>
+        <v>0.08163152516022744</v>
       </c>
       <c r="D39">
-        <v>-0.09103403469253935</v>
+        <v>-0.01215186780045705</v>
       </c>
       <c r="E39">
-        <v>0.003032912117582094</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02105802992131639</v>
+      </c>
+      <c r="F39">
+        <v>0.03641873534446952</v>
+      </c>
+      <c r="G39">
+        <v>0.04139758355854024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01225258082110479</v>
+        <v>0.0188908102409444</v>
       </c>
       <c r="C40">
-        <v>-0.02747064942763836</v>
+        <v>0.03234832004008587</v>
       </c>
       <c r="D40">
-        <v>-0.02816781493381634</v>
+        <v>-0.01335496674149706</v>
       </c>
       <c r="E40">
-        <v>0.001771955917724063</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01977455747363185</v>
+      </c>
+      <c r="F40">
+        <v>0.0174480320954391</v>
+      </c>
+      <c r="G40">
+        <v>0.03922492746074437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.005855700633740627</v>
+        <v>0.01131325930776482</v>
       </c>
       <c r="C41">
-        <v>-0.02249100540989435</v>
+        <v>0.001834988405409668</v>
       </c>
       <c r="D41">
-        <v>0.008993292015020835</v>
+        <v>-0.004151591169691503</v>
       </c>
       <c r="E41">
-        <v>-0.0025897031172268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0006287334623371893</v>
+      </c>
+      <c r="F41">
+        <v>0.0001178543488614061</v>
+      </c>
+      <c r="G41">
+        <v>0.02629803303623298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09317268481372126</v>
+        <v>0.01430484408820902</v>
       </c>
       <c r="C42">
-        <v>-0.00439310152402472</v>
+        <v>0.04210056042018819</v>
       </c>
       <c r="D42">
-        <v>-0.2780903618870266</v>
+        <v>-0.09441680747477796</v>
       </c>
       <c r="E42">
-        <v>0.2591692338633182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03611311701644171</v>
+      </c>
+      <c r="F42">
+        <v>-0.04309236608241985</v>
+      </c>
+      <c r="G42">
+        <v>-0.1539809592387787</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.00714556694708421</v>
+        <v>0.02904965250623473</v>
       </c>
       <c r="C43">
-        <v>-0.02561386377154175</v>
+        <v>0.01337139770649401</v>
       </c>
       <c r="D43">
-        <v>0.01356370903586266</v>
+        <v>-0.004901815831123131</v>
       </c>
       <c r="E43">
-        <v>0.003955941400822911</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.009017786330429701</v>
+      </c>
+      <c r="F43">
+        <v>-0.001523470803343195</v>
+      </c>
+      <c r="G43">
+        <v>0.03768804311851996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003654736458265929</v>
+        <v>0.01529793519159309</v>
       </c>
       <c r="C44">
-        <v>-0.01107146446401664</v>
+        <v>0.04765205910918155</v>
       </c>
       <c r="D44">
-        <v>-0.02623960777551318</v>
+        <v>-0.006244756451344973</v>
       </c>
       <c r="E44">
-        <v>-0.004090081169481589</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01669200948502974</v>
+      </c>
+      <c r="F44">
+        <v>0.002460967416529067</v>
+      </c>
+      <c r="G44">
+        <v>0.05737160202554382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01106856134366815</v>
+        <v>0.005586003741272147</v>
       </c>
       <c r="C46">
-        <v>-0.01954565300537118</v>
+        <v>0.01676362332643317</v>
       </c>
       <c r="D46">
-        <v>-0.009715195354079741</v>
+        <v>-0.01150080515791397</v>
       </c>
       <c r="E46">
-        <v>-0.00283741198476319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.006001876745109263</v>
+      </c>
+      <c r="F46">
+        <v>-0.01856176742115531</v>
+      </c>
+      <c r="G46">
+        <v>0.04229470403219189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.003058347790113534</v>
+        <v>0.07530990383367113</v>
       </c>
       <c r="C47">
-        <v>-0.06022596102155682</v>
+        <v>0.0669917795869968</v>
       </c>
       <c r="D47">
-        <v>-0.05525098250524858</v>
+        <v>0.004754139572632862</v>
       </c>
       <c r="E47">
-        <v>-0.0003811713982108238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.0091210475534082</v>
+      </c>
+      <c r="F47">
+        <v>-0.05265255511070863</v>
+      </c>
+      <c r="G47">
+        <v>0.04067536535876121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.003641623881815164</v>
+        <v>0.0200015719355811</v>
       </c>
       <c r="C48">
-        <v>-0.02976008838359429</v>
+        <v>0.009273360140632384</v>
       </c>
       <c r="D48">
-        <v>-0.008641644111077472</v>
+        <v>-0.0009045526763141575</v>
       </c>
       <c r="E48">
-        <v>-0.004671140362505667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003977736010708035</v>
+      </c>
+      <c r="F48">
+        <v>-0.01622514034781388</v>
+      </c>
+      <c r="G48">
+        <v>0.04372356905836921</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.004118642775133361</v>
+        <v>0.07791309147631699</v>
       </c>
       <c r="C50">
-        <v>-0.05334845510506076</v>
+        <v>0.06844559918870874</v>
       </c>
       <c r="D50">
-        <v>-0.06200615216971151</v>
+        <v>0.003116081880049909</v>
       </c>
       <c r="E50">
-        <v>-0.0284018160441898</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01290194702575608</v>
+      </c>
+      <c r="F50">
+        <v>-0.05477514063319004</v>
+      </c>
+      <c r="G50">
+        <v>0.06513312024333752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007108362859744688</v>
+        <v>0.01131062638939961</v>
       </c>
       <c r="C51">
-        <v>-0.01955003855637986</v>
+        <v>0.02991066356166143</v>
       </c>
       <c r="D51">
-        <v>0.004484746441469577</v>
+        <v>-0.009148457413583951</v>
       </c>
       <c r="E51">
-        <v>-0.004389187239959554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.009556536292782965</v>
+      </c>
+      <c r="F51">
+        <v>0.01883913801964018</v>
+      </c>
+      <c r="G51">
+        <v>0.06457509032572156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.006043934649465469</v>
+        <v>0.08286933001601275</v>
       </c>
       <c r="C53">
-        <v>-0.07489989902116276</v>
+        <v>0.08137490390174908</v>
       </c>
       <c r="D53">
-        <v>-0.112826604342012</v>
+        <v>0.004212025053989077</v>
       </c>
       <c r="E53">
-        <v>-0.01259329761454382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03290160874418086</v>
+      </c>
+      <c r="F53">
+        <v>-0.05625871628603479</v>
+      </c>
+      <c r="G53">
+        <v>0.0420555767356803</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0002437600636554057</v>
+        <v>0.03111427464631048</v>
       </c>
       <c r="C54">
-        <v>-0.03615753248587313</v>
+        <v>0.01231349565531082</v>
       </c>
       <c r="D54">
-        <v>0.009988348381544949</v>
+        <v>0.002866494336408633</v>
       </c>
       <c r="E54">
-        <v>-0.01071656874192702</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001119427515916481</v>
+      </c>
+      <c r="F54">
+        <v>-0.005476270994209723</v>
+      </c>
+      <c r="G54">
+        <v>0.0470839803974487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003114098598986989</v>
+        <v>0.07069713912513381</v>
       </c>
       <c r="C55">
-        <v>-0.05560796663761344</v>
+        <v>0.07259361626049265</v>
       </c>
       <c r="D55">
-        <v>-0.09805606064892192</v>
+        <v>0.004682403442682129</v>
       </c>
       <c r="E55">
-        <v>0.0009814361374261198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02460421265108343</v>
+      </c>
+      <c r="F55">
+        <v>-0.05517191295009476</v>
+      </c>
+      <c r="G55">
+        <v>0.02396804576016827</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.004484146348637165</v>
+        <v>0.1416298033836541</v>
       </c>
       <c r="C56">
-        <v>-0.1038490672542632</v>
+        <v>0.1079058459480331</v>
       </c>
       <c r="D56">
-        <v>-0.1446508676916935</v>
+        <v>0.01259438762444165</v>
       </c>
       <c r="E56">
-        <v>-0.002421028068015905</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03695993490620186</v>
+      </c>
+      <c r="F56">
+        <v>-0.07837308356713131</v>
+      </c>
+      <c r="G56">
+        <v>0.01135369934446077</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02404792665733475</v>
+        <v>0.009329607951239839</v>
       </c>
       <c r="C57">
-        <v>-0.02359497347174247</v>
+        <v>0.009804686510690656</v>
       </c>
       <c r="D57">
-        <v>-0.04041972069776443</v>
+        <v>-0.02353431948063982</v>
       </c>
       <c r="E57">
-        <v>0.0005569437780874547</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02622570047046527</v>
+      </c>
+      <c r="F57">
+        <v>0.01341818660486589</v>
+      </c>
+      <c r="G57">
+        <v>0.0250190721439629</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01265987599370387</v>
+        <v>0.08224124865242102</v>
       </c>
       <c r="C58">
-        <v>-0.1061565281326486</v>
+        <v>0.03394794720638996</v>
       </c>
       <c r="D58">
-        <v>-0.08710527313039755</v>
+        <v>-0.01563830101034979</v>
       </c>
       <c r="E58">
-        <v>0.20304691441452</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9468486260839891</v>
+      </c>
+      <c r="F58">
+        <v>-0.2143006331028291</v>
+      </c>
+      <c r="G58">
+        <v>-0.01824197625549078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.03242380811158827</v>
+        <v>0.1620306672480692</v>
       </c>
       <c r="C59">
-        <v>-0.2397067928406342</v>
+        <v>-0.2100070677602993</v>
       </c>
       <c r="D59">
-        <v>0.1839405583996698</v>
+        <v>0.01575268114026849</v>
       </c>
       <c r="E59">
-        <v>0.004390159888699551</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.002189735435798832</v>
+      </c>
+      <c r="F59">
+        <v>-0.001822969043586559</v>
+      </c>
+      <c r="G59">
+        <v>0.02247671439486374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03665377101815848</v>
+        <v>0.283489146169585</v>
       </c>
       <c r="C60">
-        <v>-0.1629842452460508</v>
+        <v>0.1036456066360021</v>
       </c>
       <c r="D60">
-        <v>-0.06499629229378003</v>
+        <v>-0.01143573289669043</v>
       </c>
       <c r="E60">
-        <v>0.03420502114738742</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.006426797559889432</v>
+      </c>
+      <c r="F60">
+        <v>0.3563479752009169</v>
+      </c>
+      <c r="G60">
+        <v>-0.1021621690555797</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003747280236252746</v>
+        <v>0.03345442321725128</v>
       </c>
       <c r="C61">
-        <v>-0.0141129721432885</v>
+        <v>0.06524258566088341</v>
       </c>
       <c r="D61">
-        <v>-0.06094670900855898</v>
+        <v>-0.0054920446210019</v>
       </c>
       <c r="E61">
-        <v>-0.000916849071793328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01033555637575325</v>
+      </c>
+      <c r="F61">
+        <v>0.02105358225091417</v>
+      </c>
+      <c r="G61">
+        <v>0.03828364280916823</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007618871652308493</v>
+        <v>0.01263805395050098</v>
       </c>
       <c r="C63">
-        <v>-0.01074274546297031</v>
+        <v>0.0277221050709698</v>
       </c>
       <c r="D63">
-        <v>-0.006605714736363956</v>
+        <v>-0.008066615604161749</v>
       </c>
       <c r="E63">
-        <v>-0.009803891418715342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.004139310216358151</v>
+      </c>
+      <c r="F63">
+        <v>-0.01605592509786457</v>
+      </c>
+      <c r="G63">
+        <v>0.04773552928545217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008301043595039977</v>
+        <v>0.05007528887381794</v>
       </c>
       <c r="C64">
-        <v>-0.03699933379852343</v>
+        <v>0.0433079232855717</v>
       </c>
       <c r="D64">
-        <v>-0.06381404900100585</v>
+        <v>-0.005645725475632531</v>
       </c>
       <c r="E64">
-        <v>0.008451432375565105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006680061866601785</v>
+      </c>
+      <c r="F64">
+        <v>0.003842059099701428</v>
+      </c>
+      <c r="G64">
+        <v>0.03343730703511658</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01809172928859775</v>
+        <v>0.08377684285370471</v>
       </c>
       <c r="C65">
-        <v>-0.02938095250001382</v>
+        <v>0.06000178062331048</v>
       </c>
       <c r="D65">
-        <v>-0.08770786266416238</v>
+        <v>-0.01482475117995798</v>
       </c>
       <c r="E65">
-        <v>-0.009253682636559188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01704506462552037</v>
+      </c>
+      <c r="F65">
+        <v>0.03627457409917424</v>
+      </c>
+      <c r="G65">
+        <v>0.01568631147408645</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005595973797343149</v>
+        <v>0.04890042912529823</v>
       </c>
       <c r="C66">
-        <v>0.002508026263611582</v>
+        <v>0.113350505449237</v>
       </c>
       <c r="D66">
-        <v>-0.1173339020560518</v>
+        <v>-0.0120289902238545</v>
       </c>
       <c r="E66">
-        <v>0.01489105094450352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02725110418348308</v>
+      </c>
+      <c r="F66">
+        <v>0.04540790134476752</v>
+      </c>
+      <c r="G66">
+        <v>0.03761649302491624</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001966969364672557</v>
+        <v>0.05299352303576645</v>
       </c>
       <c r="C67">
-        <v>-0.05991718701617526</v>
+        <v>0.03319317656559724</v>
       </c>
       <c r="D67">
-        <v>-0.03137295013745917</v>
+        <v>0.005523631096786527</v>
       </c>
       <c r="E67">
-        <v>0.0002756642787230205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.001385818642366445</v>
+      </c>
+      <c r="F67">
+        <v>-0.0109824010742649</v>
+      </c>
+      <c r="G67">
+        <v>0.04010664854816071</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05015247153111389</v>
+        <v>0.1451538932862884</v>
       </c>
       <c r="C68">
-        <v>-0.2145196305003463</v>
+        <v>-0.2689327997818919</v>
       </c>
       <c r="D68">
-        <v>0.1708148546705909</v>
+        <v>-0.002514847722401451</v>
       </c>
       <c r="E68">
-        <v>0.00962761886547457</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.003451016302058725</v>
+      </c>
+      <c r="F68">
+        <v>-0.04054261752521663</v>
+      </c>
+      <c r="G68">
+        <v>0.02321290595471827</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.00157337985710093</v>
+        <v>0.07487779201887308</v>
       </c>
       <c r="C69">
-        <v>-0.05070829759426537</v>
+        <v>0.06870043079118379</v>
       </c>
       <c r="D69">
-        <v>-0.05996322671283082</v>
+        <v>0.008431809214014228</v>
       </c>
       <c r="E69">
-        <v>-0.003176484098711051</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02637615470638242</v>
+      </c>
+      <c r="F69">
+        <v>-0.03883509246455232</v>
+      </c>
+      <c r="G69">
+        <v>0.04593376099005642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03632892249117085</v>
+        <v>0.1390316071139692</v>
       </c>
       <c r="C71">
-        <v>-0.1892501673391511</v>
+        <v>-0.2319131407882697</v>
       </c>
       <c r="D71">
-        <v>0.1541273058526026</v>
+        <v>0.00638510259823216</v>
       </c>
       <c r="E71">
-        <v>-0.003464274864675286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02190564699922585</v>
+      </c>
+      <c r="F71">
+        <v>-0.009779546300737667</v>
+      </c>
+      <c r="G71">
+        <v>0.03803073731101422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0003939105555113814</v>
+        <v>0.08335760216672072</v>
       </c>
       <c r="C72">
-        <v>-0.05889846759473246</v>
+        <v>0.07426798932007525</v>
       </c>
       <c r="D72">
-        <v>-0.1290271041660003</v>
+        <v>0.008202809836623625</v>
       </c>
       <c r="E72">
-        <v>0.0148728846899165</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.006066311701425423</v>
+      </c>
+      <c r="F72">
+        <v>0.04219654286354098</v>
+      </c>
+      <c r="G72">
+        <v>0.01513869694604379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05097131900727741</v>
+        <v>0.3942081482243454</v>
       </c>
       <c r="C73">
-        <v>-0.2003807526450889</v>
+        <v>0.1172115749393661</v>
       </c>
       <c r="D73">
-        <v>-0.1548671855064639</v>
+        <v>-0.01743938081450782</v>
       </c>
       <c r="E73">
-        <v>0.08748762916760362</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05244803950023456</v>
+      </c>
+      <c r="F73">
+        <v>0.5586182058603536</v>
+      </c>
+      <c r="G73">
+        <v>-0.1794499845333135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.002173950597202038</v>
+        <v>0.1102757122834854</v>
       </c>
       <c r="C74">
-        <v>-0.0950430703715551</v>
+        <v>0.1178248211061499</v>
       </c>
       <c r="D74">
-        <v>-0.1507467542016921</v>
+        <v>0.009573016425944913</v>
       </c>
       <c r="E74">
-        <v>0.003765894165537596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01518453907188952</v>
+      </c>
+      <c r="F74">
+        <v>-0.07165174027837101</v>
+      </c>
+      <c r="G74">
+        <v>0.04926372268748025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.008422673853835508</v>
+        <v>0.2493509415659556</v>
       </c>
       <c r="C75">
-        <v>-0.2106135607718851</v>
+        <v>0.1597665765801155</v>
       </c>
       <c r="D75">
-        <v>-0.2733689105146946</v>
+        <v>0.02949855519384462</v>
       </c>
       <c r="E75">
-        <v>0.01681418743759759</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05299819328601756</v>
+      </c>
+      <c r="F75">
+        <v>-0.1844888924361018</v>
+      </c>
+      <c r="G75">
+        <v>-0.03543999121279588</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.00145860435716995</v>
+        <v>0.1262587606161274</v>
       </c>
       <c r="C76">
-        <v>-0.1414207690559554</v>
+        <v>0.1186351617100082</v>
       </c>
       <c r="D76">
-        <v>-0.2215694072484547</v>
+        <v>0.02041651597834798</v>
       </c>
       <c r="E76">
-        <v>-0.01475118112945516</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04696171968223704</v>
+      </c>
+      <c r="F76">
+        <v>-0.1180048030922444</v>
+      </c>
+      <c r="G76">
+        <v>0.02802421935288537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01244286133457378</v>
+        <v>0.06453796536319829</v>
       </c>
       <c r="C77">
-        <v>-0.0231790694196554</v>
+        <v>0.06157294407921805</v>
       </c>
       <c r="D77">
-        <v>-0.05065754861408572</v>
+        <v>-0.01220130591226733</v>
       </c>
       <c r="E77">
-        <v>0.003789262604018806</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04933960823682947</v>
+      </c>
+      <c r="F77">
+        <v>0.01524122129797668</v>
+      </c>
+      <c r="G77">
+        <v>0.05072217168549176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004734885111542639</v>
+        <v>0.04099836108773779</v>
       </c>
       <c r="C78">
-        <v>-0.0204532623705132</v>
+        <v>0.05074476254016754</v>
       </c>
       <c r="D78">
-        <v>-0.05987570386486334</v>
+        <v>-0.00541904955015522</v>
       </c>
       <c r="E78">
-        <v>-0.003829466424708218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01965384593165038</v>
+      </c>
+      <c r="F78">
+        <v>0.04319977215365452</v>
+      </c>
+      <c r="G78">
+        <v>0.04561790687914679</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01642437465721681</v>
+        <v>0.05345670937217176</v>
       </c>
       <c r="C80">
-        <v>-0.1097000471307352</v>
+        <v>0.06238849132903465</v>
       </c>
       <c r="D80">
-        <v>-0.1326381545150878</v>
+        <v>-0.0131105357680044</v>
       </c>
       <c r="E80">
-        <v>-0.9200792562753844</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03466433763324057</v>
+      </c>
+      <c r="F80">
+        <v>0.04522962427345336</v>
+      </c>
+      <c r="G80">
+        <v>0.85706420196474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.006295578683843216</v>
+        <v>0.1443051752710966</v>
       </c>
       <c r="C81">
-        <v>-0.1311766916240557</v>
+        <v>0.094370880081754</v>
       </c>
       <c r="D81">
-        <v>-0.1602341699316437</v>
+        <v>0.01498044322588317</v>
       </c>
       <c r="E81">
-        <v>0.0004910339521743707</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03011314798632501</v>
+      </c>
+      <c r="F81">
+        <v>-0.1223994011686269</v>
+      </c>
+      <c r="G81">
+        <v>0.02216969281023662</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1013175427485626</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05388493284334264</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.005072434118090613</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07740564051678141</v>
+      </c>
+      <c r="F82">
+        <v>-0.01722609889481751</v>
+      </c>
+      <c r="G82">
+        <v>0.02111729287718196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007195250412557869</v>
+        <v>0.02768036916473422</v>
       </c>
       <c r="C83">
-        <v>-0.02620126535631895</v>
+        <v>0.02146350357914378</v>
       </c>
       <c r="D83">
-        <v>-0.02180324664465701</v>
+        <v>-0.005326536396573943</v>
       </c>
       <c r="E83">
-        <v>0.002246173384128291</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02404895756711461</v>
+      </c>
+      <c r="F83">
+        <v>0.02401512793153701</v>
+      </c>
+      <c r="G83">
+        <v>0.02919316960903797</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01448958197834761</v>
+        <v>0.2216347049582747</v>
       </c>
       <c r="C85">
-        <v>-0.162045910164812</v>
+        <v>0.1521761462019895</v>
       </c>
       <c r="D85">
-        <v>-0.2568261096208455</v>
+        <v>0.01772863771195119</v>
       </c>
       <c r="E85">
-        <v>0.02127910810987738</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09344314230219966</v>
+      </c>
+      <c r="F85">
+        <v>-0.1553275369099796</v>
+      </c>
+      <c r="G85">
+        <v>-0.06193722041114526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007590431909452872</v>
+        <v>0.01022612806060348</v>
       </c>
       <c r="C86">
-        <v>-0.02855559718876006</v>
+        <v>0.01634295120626569</v>
       </c>
       <c r="D86">
-        <v>-0.006217243574855604</v>
+        <v>-0.01010426277109038</v>
       </c>
       <c r="E86">
-        <v>0.02183014865834732</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03314809472505127</v>
+      </c>
+      <c r="F86">
+        <v>0.03054722598889143</v>
+      </c>
+      <c r="G86">
+        <v>0.07981275287809016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.00767631234490892</v>
+        <v>0.01991610145264009</v>
       </c>
       <c r="C87">
-        <v>-0.01743856208975096</v>
+        <v>0.02376497871000979</v>
       </c>
       <c r="D87">
-        <v>-0.03985414964980478</v>
+        <v>-0.01059495618852285</v>
       </c>
       <c r="E87">
-        <v>0.002447956990129247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08194985116179168</v>
+      </c>
+      <c r="F87">
+        <v>0.02703616008148343</v>
+      </c>
+      <c r="G87">
+        <v>0.06072769597751715</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02662330754616062</v>
+        <v>0.08943402563950723</v>
       </c>
       <c r="C88">
-        <v>-0.03410158122875595</v>
+        <v>0.06582068797840138</v>
       </c>
       <c r="D88">
-        <v>-0.03681243960759045</v>
+        <v>-0.02286140810226454</v>
       </c>
       <c r="E88">
-        <v>0.0008758961572883856</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01348166238094711</v>
+      </c>
+      <c r="F88">
+        <v>-0.01672184621496295</v>
+      </c>
+      <c r="G88">
+        <v>0.03812433967922847</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.06952618221395825</v>
+        <v>0.2282123455154019</v>
       </c>
       <c r="C89">
-        <v>-0.3519726678374613</v>
+        <v>-0.3631807052315958</v>
       </c>
       <c r="D89">
-        <v>0.2678128623419903</v>
+        <v>0.005309357078550553</v>
       </c>
       <c r="E89">
-        <v>0.01956212576830672</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02195429453348229</v>
+      </c>
+      <c r="F89">
+        <v>-0.02642450622059557</v>
+      </c>
+      <c r="G89">
+        <v>0.03428648226390814</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.05237429442053997</v>
+        <v>0.2026996476836099</v>
       </c>
       <c r="C90">
-        <v>-0.2657956958501683</v>
+        <v>-0.3273572952609303</v>
       </c>
       <c r="D90">
-        <v>0.2333957639545342</v>
+        <v>0.0093165735036316</v>
       </c>
       <c r="E90">
-        <v>0.02130193088241589</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02181387847655662</v>
+      </c>
+      <c r="F90">
+        <v>-0.04679634331110168</v>
+      </c>
+      <c r="G90">
+        <v>0.006796492286325426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.004663043675098033</v>
+        <v>0.1976902011437714</v>
       </c>
       <c r="C91">
-        <v>-0.180868710299381</v>
+        <v>0.1425613021130585</v>
       </c>
       <c r="D91">
-        <v>-0.2308266851644079</v>
+        <v>0.02334262242958046</v>
       </c>
       <c r="E91">
-        <v>0.003941956013918045</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06985696188991893</v>
+      </c>
+      <c r="F91">
+        <v>-0.1598412125240204</v>
+      </c>
+      <c r="G91">
+        <v>0.008309342003355563</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.01956297500318677</v>
+        <v>0.2076088093006115</v>
       </c>
       <c r="C92">
-        <v>-0.3051905707511332</v>
+        <v>-0.2618210275965551</v>
       </c>
       <c r="D92">
-        <v>0.1242139181564949</v>
+        <v>0.04577946101257768</v>
       </c>
       <c r="E92">
-        <v>0.01055478348788892</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.003851615460787569</v>
+      </c>
+      <c r="F92">
+        <v>-0.07823291954771028</v>
+      </c>
+      <c r="G92">
+        <v>0.07550000668598604</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05015224519377363</v>
+        <v>0.2316392979635219</v>
       </c>
       <c r="C93">
-        <v>-0.2957228536217448</v>
+        <v>-0.3194013258611125</v>
       </c>
       <c r="D93">
-        <v>0.2301200036708529</v>
+        <v>0.01628507568702847</v>
       </c>
       <c r="E93">
-        <v>0.0419837476867177</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008268771720353217</v>
+      </c>
+      <c r="F93">
+        <v>-0.03930687024313109</v>
+      </c>
+      <c r="G93">
+        <v>0.003584113836487179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02711537208282554</v>
+        <v>0.2989361815568994</v>
       </c>
       <c r="C94">
-        <v>-0.2095314646831538</v>
+        <v>0.1925846400768335</v>
       </c>
       <c r="D94">
-        <v>-0.240586492039334</v>
+        <v>0.01347435479111848</v>
       </c>
       <c r="E94">
-        <v>0.05051528397795248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1453303330255162</v>
+      </c>
+      <c r="F94">
+        <v>-0.4917896449754379</v>
+      </c>
+      <c r="G94">
+        <v>-0.1883615228935245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004152801432629612</v>
+        <v>0.084452216903957</v>
       </c>
       <c r="C95">
-        <v>-0.05749402140742883</v>
+        <v>0.07275024545237896</v>
       </c>
       <c r="D95">
-        <v>-0.08905611356972622</v>
+        <v>0.008267606060172088</v>
       </c>
       <c r="E95">
-        <v>0.1090923741385084</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06491540468955656</v>
+      </c>
+      <c r="F95">
+        <v>0.1518867214463819</v>
+      </c>
+      <c r="G95">
+        <v>-0.06178999923680627</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01125223543427905</v>
+        <v>0.1958293724467788</v>
       </c>
       <c r="C98">
-        <v>-0.1702773823467328</v>
+        <v>0.04311942165898981</v>
       </c>
       <c r="D98">
-        <v>-0.1045352418156485</v>
+        <v>0.01391042741462117</v>
       </c>
       <c r="E98">
-        <v>0.04971304558749863</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06402764594554414</v>
+      </c>
+      <c r="F98">
+        <v>0.2539176941982972</v>
+      </c>
+      <c r="G98">
+        <v>-0.03117071272681079</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007763798778333798</v>
+        <v>0.01039526860987581</v>
       </c>
       <c r="C101">
-        <v>-0.02016789953211564</v>
+        <v>0.01925317951254372</v>
       </c>
       <c r="D101">
-        <v>-0.009127265004573554</v>
+        <v>-0.007252908987594451</v>
       </c>
       <c r="E101">
-        <v>-0.008856658786002072</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008117132952046406</v>
+      </c>
+      <c r="F101">
+        <v>-0.01404936468609279</v>
+      </c>
+      <c r="G101">
+        <v>0.04419154335167429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0165223771324628</v>
+        <v>0.1194255445246674</v>
       </c>
       <c r="C102">
-        <v>-0.09218748037969128</v>
+        <v>0.08684961940145172</v>
       </c>
       <c r="D102">
-        <v>-0.1229807949027664</v>
+        <v>-0.001764175318422701</v>
       </c>
       <c r="E102">
-        <v>0.009021122640291927</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02871761958725042</v>
+      </c>
+      <c r="F102">
+        <v>-0.03418885178402048</v>
+      </c>
+      <c r="G102">
+        <v>-0.0002217589012029734</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001553170466829975</v>
+        <v>0.003496772914971472</v>
       </c>
       <c r="C103">
-        <v>-0.01289050729663747</v>
+        <v>0.004851103870218179</v>
       </c>
       <c r="D103">
-        <v>-0.02500431768851523</v>
+        <v>-0.0001161566035799695</v>
       </c>
       <c r="E103">
-        <v>-0.0159149343251302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001347748314567015</v>
+      </c>
+      <c r="F103">
+        <v>-0.009262052720515989</v>
+      </c>
+      <c r="G103">
+        <v>0.01580860309379512</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9802368037772408</v>
+        <v>0.02843486136799505</v>
       </c>
       <c r="C104">
-        <v>0.1444921802213707</v>
+        <v>-0.03817133033030141</v>
       </c>
       <c r="D104">
-        <v>0.0007326253106060154</v>
+        <v>-0.9875644756216312</v>
       </c>
       <c r="E104">
-        <v>-0.02404672814817644</v>
+        <v>0.03794013402755363</v>
+      </c>
+      <c r="F104">
+        <v>-0.04060617999554995</v>
+      </c>
+      <c r="G104">
+        <v>-0.0128336813163347</v>
       </c>
     </row>
   </sheetData>
